--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId3"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId4"/>
+    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -211,25 +211,28 @@
   </si>
   <si>
     <t>-*SMR</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -269,130 +272,38 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499980002641678"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980008602142"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="21"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Heading 2" xfId="20" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="21" builtinId="18"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,29 +611,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A3" sqref="A3:H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -754,30 +663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -826,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -834,7 +742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -842,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -850,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -864,7 +772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -872,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -880,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -888,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -896,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="14.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -904,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -915,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -926,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="14.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>52</v>
       </c>
@@ -934,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -945,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -962,7 +870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -973,7 +881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -990,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -999,6 +907,17 @@
       </c>
       <c r="F20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE0ECB-7C77-4F10-AB56-F3A00DAFA9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
   </si>
 </sst>
 </file>
@@ -664,11 +670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -920,6 +926,14 @@
         <v>58</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE0ECB-7C77-4F10-AB56-F3A00DAFA9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D1957-B39B-4193-9893-6DE42CBDF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -226,6 +226,63 @@
   </si>
   <si>
     <t>Demand</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
   </si>
 </sst>
 </file>
@@ -618,26 +675,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -663,7 +725,401 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>"e_*"&amp;K3</f>
+        <v>e_*220</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"Elec-"&amp;K3&amp;"V"</f>
+        <v>Elec-220V</v>
+      </c>
+      <c r="K3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B23" si="0">"e_*"&amp;K4</f>
+        <v>e_*400</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"Elec-"&amp;K4&amp;"V"</f>
+        <v>Elec-400V</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*380</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"Elec-"&amp;K5&amp;"V"</f>
+        <v>Elec-380V</v>
+      </c>
+      <c r="K5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*225</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"Elec-"&amp;K6&amp;"V"</f>
+        <v>Elec-225V</v>
+      </c>
+      <c r="K6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*330</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"Elec-"&amp;K7&amp;"V"</f>
+        <v>Elec-330V</v>
+      </c>
+      <c r="K7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*275</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"Elec-"&amp;K8&amp;"V"</f>
+        <v>Elec-275V</v>
+      </c>
+      <c r="K8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*420</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"Elec-"&amp;K9&amp;"V"</f>
+        <v>Elec-420V</v>
+      </c>
+      <c r="K9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*300</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"Elec-"&amp;K10&amp;"V"</f>
+        <v>Elec-300V</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*500</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"Elec-"&amp;K11&amp;"V"</f>
+        <v>Elec-500V</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*750</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"Elec-"&amp;K12&amp;"V"</f>
+        <v>Elec-750V</v>
+      </c>
+      <c r="K12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*450</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"Elec-"&amp;K13&amp;"V"</f>
+        <v>Elec-450V</v>
+      </c>
+      <c r="K13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*515</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"Elec-"&amp;K14&amp;"V"</f>
+        <v>Elec-515V</v>
+      </c>
+      <c r="K14">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*525</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"Elec-"&amp;K15&amp;"V"</f>
+        <v>Elec-525V</v>
+      </c>
+      <c r="K15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*320</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"Elec-"&amp;K16&amp;"V"</f>
+        <v>Elec-320V</v>
+      </c>
+      <c r="K16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*150</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"Elec-"&amp;K17&amp;"V"</f>
+        <v>Elec-150V</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*270</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"Elec-"&amp;K18&amp;"V"</f>
+        <v>Elec-270V</v>
+      </c>
+      <c r="K18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*350</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"Elec-"&amp;K19&amp;"V"</f>
+        <v>Elec-350V</v>
+      </c>
+      <c r="K19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*250</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"Elec-"&amp;K20&amp;"V"</f>
+        <v>Elec-250V</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*200</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"Elec-"&amp;K21&amp;"V"</f>
+        <v>Elec-200V</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*236</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"Elec-"&amp;K22&amp;"V"</f>
+        <v>Elec-236V</v>
+      </c>
+      <c r="K22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>e_*600</v>
+      </c>
+      <c r="D23" t="str">
+        <f>"Elec-"&amp;K23&amp;"V"</f>
+        <v>Elec-600V</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B28</f>
+        <v>bioenergy</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="str">
+        <f>B29</f>
+        <v>hydrogen</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="str">
+        <f>B30</f>
+        <v>nuclear</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="str">
+        <f>B31</f>
+        <v>ELC</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="str">
+        <f>B36</f>
+        <v>co2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="str">
+        <f>B37</f>
+        <v>co2captured</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D37">
+    <sortCondition ref="A26:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -672,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D1957-B39B-4193-9893-6DE42CBDF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423B1C7-E295-4586-A96D-56CBD5E4C9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Transformers</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -731,7 +740,7 @@
         <v>e_*220</v>
       </c>
       <c r="D3" t="str">
-        <f>"Elec-"&amp;K3&amp;"V"</f>
+        <f t="shared" ref="D3:D23" si="0">"Elec-"&amp;K3&amp;"V"</f>
         <v>Elec-220V</v>
       </c>
       <c r="K3">
@@ -740,11 +749,11 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B23" si="0">"e_*"&amp;K4</f>
+        <f t="shared" ref="B4:B23" si="1">"e_*"&amp;K4</f>
         <v>e_*400</v>
       </c>
       <c r="D4" t="str">
-        <f>"Elec-"&amp;K4&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-400V</v>
       </c>
       <c r="K4">
@@ -753,11 +762,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*380</v>
       </c>
       <c r="D5" t="str">
-        <f>"Elec-"&amp;K5&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-380V</v>
       </c>
       <c r="K5">
@@ -766,11 +775,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*225</v>
       </c>
       <c r="D6" t="str">
-        <f>"Elec-"&amp;K6&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-225V</v>
       </c>
       <c r="K6">
@@ -779,11 +788,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*330</v>
       </c>
       <c r="D7" t="str">
-        <f>"Elec-"&amp;K7&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-330V</v>
       </c>
       <c r="K7">
@@ -792,11 +801,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*275</v>
       </c>
       <c r="D8" t="str">
-        <f>"Elec-"&amp;K8&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-275V</v>
       </c>
       <c r="K8">
@@ -805,11 +814,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*420</v>
       </c>
       <c r="D9" t="str">
-        <f>"Elec-"&amp;K9&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-420V</v>
       </c>
       <c r="K9">
@@ -818,11 +827,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*300</v>
       </c>
       <c r="D10" t="str">
-        <f>"Elec-"&amp;K10&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-300V</v>
       </c>
       <c r="K10">
@@ -831,11 +840,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*500</v>
       </c>
       <c r="D11" t="str">
-        <f>"Elec-"&amp;K11&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-500V</v>
       </c>
       <c r="K11">
@@ -844,11 +853,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*750</v>
       </c>
       <c r="D12" t="str">
-        <f>"Elec-"&amp;K12&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-750V</v>
       </c>
       <c r="K12">
@@ -857,11 +866,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*450</v>
       </c>
       <c r="D13" t="str">
-        <f>"Elec-"&amp;K13&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-450V</v>
       </c>
       <c r="K13">
@@ -870,11 +879,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*515</v>
       </c>
       <c r="D14" t="str">
-        <f>"Elec-"&amp;K14&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-515V</v>
       </c>
       <c r="K14">
@@ -883,11 +892,11 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*525</v>
       </c>
       <c r="D15" t="str">
-        <f>"Elec-"&amp;K15&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-525V</v>
       </c>
       <c r="K15">
@@ -896,11 +905,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*320</v>
       </c>
       <c r="D16" t="str">
-        <f>"Elec-"&amp;K16&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-320V</v>
       </c>
       <c r="K16">
@@ -909,11 +918,11 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*150</v>
       </c>
       <c r="D17" t="str">
-        <f>"Elec-"&amp;K17&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-150V</v>
       </c>
       <c r="K17">
@@ -922,11 +931,11 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*270</v>
       </c>
       <c r="D18" t="str">
-        <f>"Elec-"&amp;K18&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-270V</v>
       </c>
       <c r="K18">
@@ -935,11 +944,11 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*350</v>
       </c>
       <c r="D19" t="str">
-        <f>"Elec-"&amp;K19&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-350V</v>
       </c>
       <c r="K19">
@@ -948,11 +957,11 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*250</v>
       </c>
       <c r="D20" t="str">
-        <f>"Elec-"&amp;K20&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-250V</v>
       </c>
       <c r="K20">
@@ -961,11 +970,11 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*200</v>
       </c>
       <c r="D21" t="str">
-        <f>"Elec-"&amp;K21&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-200V</v>
       </c>
       <c r="K21">
@@ -974,11 +983,11 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*236</v>
       </c>
       <c r="D22" t="str">
-        <f>"Elec-"&amp;K22&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-236V</v>
       </c>
       <c r="K22">
@@ -987,11 +996,11 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e_*600</v>
       </c>
       <c r="D23" t="str">
-        <f>"Elec-"&amp;K23&amp;"V"</f>
+        <f t="shared" si="0"/>
         <v>Elec-600V</v>
       </c>
       <c r="K23">
@@ -1126,11 +1135,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1390,6 +1399,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423B1C7-E295-4586-A96D-56CBD5E4C9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C4778E-FB46-4155-A915-514140028E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -87,15 +87,6 @@
     <t>CSET_CD</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
     <t>c_Pos_AndOr</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
-    <t>ep_nuclear*,ep_nuclear_smr*</t>
-  </si>
-  <si>
     <t>Wind onshore</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>*WOF*</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
     <t>STG</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Int Comb</t>
   </si>
   <si>
-    <t>Bioenergy</t>
-  </si>
-  <si>
     <t>EN*STG?hb*,-*EV*</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>Or</t>
   </si>
   <si>
-    <t>-*SMR</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -228,9 +207,6 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
     <t>e*spv*</t>
   </si>
   <si>
@@ -292,6 +268,48 @@
   </si>
   <si>
     <t>Transformers</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
   </si>
 </sst>
 </file>
@@ -686,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -725,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1009,39 +1027,39 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D28" t="str">
         <f>B28</f>
@@ -1050,7 +1068,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D29" t="str">
         <f>B29</f>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30" t="str">
         <f>B30</f>
@@ -1068,7 +1086,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D31" t="str">
         <f>B31</f>
@@ -1077,39 +1095,39 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D36" t="str">
         <f>B36</f>
@@ -1118,7 +1136,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D37" t="str">
         <f>B37</f>
@@ -1135,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1190,224 +1208,244 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="D11" t="s">
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>57</v>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
         <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C4778E-FB46-4155-A915-514140028E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2D249-FC31-41A9-959B-A1ABE4E2D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>Wind elec</t>
+  </si>
+  <si>
+    <t>distr*</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
   </si>
 </sst>
 </file>
@@ -704,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1153,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1351,7 +1363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
@@ -1368,7 +1380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>83</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1446,6 +1458,295 @@
       </c>
       <c r="F24" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="str">
+        <f>"g[_]*"&amp;K25</f>
+        <v>g[_]*220</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"Grid-"&amp;K25&amp;"V"</f>
+        <v>Grid-220V</v>
+      </c>
+      <c r="K25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="str">
+        <f t="shared" ref="B26:B45" si="0">"g[_]*"&amp;K26</f>
+        <v>g[_]*400</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" ref="F26:F45" si="1">"Grid-"&amp;K26&amp;"V"</f>
+        <v>Grid-400V</v>
+      </c>
+      <c r="K26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*380</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-380V</v>
+      </c>
+      <c r="K27">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*225</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-225V</v>
+      </c>
+      <c r="K28">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*330</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-330V</v>
+      </c>
+      <c r="K29">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*275</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-275V</v>
+      </c>
+      <c r="K30">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*420</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-420V</v>
+      </c>
+      <c r="K31">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*300</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-300V</v>
+      </c>
+      <c r="K32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*500</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-500V</v>
+      </c>
+      <c r="K33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*750</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-750V</v>
+      </c>
+      <c r="K34">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*450</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-450V</v>
+      </c>
+      <c r="K35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*515</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-515V</v>
+      </c>
+      <c r="K36">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*525</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-525V</v>
+      </c>
+      <c r="K37">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*320</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-320V</v>
+      </c>
+      <c r="K38">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*150</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-150V</v>
+      </c>
+      <c r="K39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*270</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-270V</v>
+      </c>
+      <c r="K40">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*350</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-350V</v>
+      </c>
+      <c r="K41">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*250</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-250V</v>
+      </c>
+      <c r="K42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*200</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-200V</v>
+      </c>
+      <c r="K43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*236</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-236V</v>
+      </c>
+      <c r="K44">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*600</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-600V</v>
+      </c>
+      <c r="K45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2D249-FC31-41A9-959B-A1ABE4E2D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -267,9 +267,6 @@
     <t>stepdown*</t>
   </si>
   <si>
-    <t>Transformers</t>
-  </si>
-  <si>
     <t>Nuclear P</t>
   </si>
   <si>
@@ -322,6 +319,15 @@
   </si>
   <si>
     <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1042,7 +1048,7 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
@@ -1050,7 +1056,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
@@ -1066,7 +1072,7 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
@@ -1165,11 +1171,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1294,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1302,7 +1308,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1332,7 +1338,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1340,13 +1346,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1354,24 +1360,24 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
@@ -1382,13 +1388,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -1457,296 +1463,307 @@
         <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B25" t="str">
-        <f>"g[_]*"&amp;K25</f>
-        <v>g[_]*220</v>
-      </c>
-      <c r="F25" t="str">
-        <f>"Grid-"&amp;K25&amp;"V"</f>
-        <v>Grid-220V</v>
-      </c>
-      <c r="K25">
-        <v>220</v>
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" t="str">
-        <f t="shared" ref="B26:B45" si="0">"g[_]*"&amp;K26</f>
-        <v>g[_]*400</v>
+        <f>"g[_]*"&amp;K26</f>
+        <v>g[_]*220</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26:F45" si="1">"Grid-"&amp;K26&amp;"V"</f>
-        <v>Grid-400V</v>
+        <f>"Grid-"&amp;K26&amp;"V"</f>
+        <v>Grid-220V</v>
       </c>
       <c r="K26">
-        <v>400</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>g[_]*380</v>
+        <f t="shared" ref="B27:B46" si="0">"g[_]*"&amp;K27</f>
+        <v>g[_]*400</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>Grid-380V</v>
+        <f t="shared" ref="F27:F46" si="1">"Grid-"&amp;K27&amp;"V"</f>
+        <v>Grid-400V</v>
       </c>
       <c r="K27">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*225</v>
+        <v>g[_]*380</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-225V</v>
+        <v>Grid-380V</v>
       </c>
       <c r="K28">
-        <v>225</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*330</v>
+        <v>g[_]*225</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-330V</v>
+        <v>Grid-225V</v>
       </c>
       <c r="K29">
-        <v>330</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*275</v>
+        <v>g[_]*330</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-275V</v>
+        <v>Grid-330V</v>
       </c>
       <c r="K30">
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*420</v>
+        <v>g[_]*275</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-420V</v>
+        <v>Grid-275V</v>
       </c>
       <c r="K31">
-        <v>420</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*300</v>
+        <v>g[_]*420</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-300V</v>
+        <v>Grid-420V</v>
       </c>
       <c r="K32">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*500</v>
+        <v>g[_]*300</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-500V</v>
+        <v>Grid-300V</v>
       </c>
       <c r="K33">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*750</v>
+        <v>g[_]*500</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-750V</v>
+        <v>Grid-500V</v>
       </c>
       <c r="K34">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*450</v>
+        <v>g[_]*750</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-450V</v>
+        <v>Grid-750V</v>
       </c>
       <c r="K35">
-        <v>450</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*515</v>
+        <v>g[_]*450</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-515V</v>
+        <v>Grid-450V</v>
       </c>
       <c r="K36">
-        <v>515</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*525</v>
+        <v>g[_]*515</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-525V</v>
+        <v>Grid-515V</v>
       </c>
       <c r="K37">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*320</v>
+        <v>g[_]*525</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-320V</v>
+        <v>Grid-525V</v>
       </c>
       <c r="K38">
-        <v>320</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*150</v>
+        <v>g[_]*320</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-150V</v>
+        <v>Grid-320V</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*270</v>
+        <v>g[_]*150</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-270V</v>
+        <v>Grid-150V</v>
       </c>
       <c r="K40">
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*350</v>
+        <v>g[_]*270</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-350V</v>
+        <v>Grid-270V</v>
       </c>
       <c r="K41">
-        <v>350</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*250</v>
+        <v>g[_]*350</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-250V</v>
+        <v>Grid-350V</v>
       </c>
       <c r="K42">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*200</v>
+        <v>g[_]*250</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-200V</v>
+        <v>Grid-250V</v>
       </c>
       <c r="K43">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>g[_]*236</v>
+        <v>g[_]*200</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>Grid-236V</v>
+        <v>Grid-200V</v>
       </c>
       <c r="K44">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
+        <v>g[_]*236</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-236V</v>
+      </c>
+      <c r="K45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
         <v>g[_]*600</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="1"/>
         <v>Grid-600V</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -5,16 +5,17 @@
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18866FEF-25F1-4AA0-BCBB-B89156DE0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
+    <sheet name="geo_sets" sheetId="3" r:id="rId2"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="413">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -328,13 +329,961 @@
   </si>
   <si>
     <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>~tfm_pset</t>
+  </si>
+  <si>
+    <t>setname</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>p_CH1</t>
+  </si>
+  <si>
+    <t>e_CH1*</t>
+  </si>
+  <si>
+    <t>p_CH11</t>
+  </si>
+  <si>
+    <t>e_CH11*</t>
+  </si>
+  <si>
+    <t>p_CH12</t>
+  </si>
+  <si>
+    <t>e_CH12*</t>
+  </si>
+  <si>
+    <t>p_CH13</t>
+  </si>
+  <si>
+    <t>e_CH13*</t>
+  </si>
+  <si>
+    <t>p_CH14</t>
+  </si>
+  <si>
+    <t>e_CH14*</t>
+  </si>
+  <si>
+    <t>p_CH15</t>
+  </si>
+  <si>
+    <t>e_CH15*</t>
+  </si>
+  <si>
+    <t>p_CH16</t>
+  </si>
+  <si>
+    <t>e_CH16*</t>
+  </si>
+  <si>
+    <t>p_CH17</t>
+  </si>
+  <si>
+    <t>e_CH17*</t>
+  </si>
+  <si>
+    <t>p_CH18</t>
+  </si>
+  <si>
+    <t>e_CH18*</t>
+  </si>
+  <si>
+    <t>p_CH19</t>
+  </si>
+  <si>
+    <t>e_CH19*</t>
+  </si>
+  <si>
+    <t>p_CH2</t>
+  </si>
+  <si>
+    <t>e_CH2*</t>
+  </si>
+  <si>
+    <t>p_CH20</t>
+  </si>
+  <si>
+    <t>e_CH20*</t>
+  </si>
+  <si>
+    <t>p_CH21</t>
+  </si>
+  <si>
+    <t>e_CH21*</t>
+  </si>
+  <si>
+    <t>p_CH22</t>
+  </si>
+  <si>
+    <t>e_CH22*</t>
+  </si>
+  <si>
+    <t>p_CH23</t>
+  </si>
+  <si>
+    <t>e_CH23*</t>
+  </si>
+  <si>
+    <t>p_CH24</t>
+  </si>
+  <si>
+    <t>e_CH24*</t>
+  </si>
+  <si>
+    <t>p_CH25</t>
+  </si>
+  <si>
+    <t>e_CH25*</t>
+  </si>
+  <si>
+    <t>p_CH26</t>
+  </si>
+  <si>
+    <t>e_CH26*</t>
+  </si>
+  <si>
+    <t>p_CH27</t>
+  </si>
+  <si>
+    <t>e_CH27*</t>
+  </si>
+  <si>
+    <t>p_CH28</t>
+  </si>
+  <si>
+    <t>e_CH28*</t>
+  </si>
+  <si>
+    <t>p_CH29</t>
+  </si>
+  <si>
+    <t>e_CH29*</t>
+  </si>
+  <si>
+    <t>p_CH3</t>
+  </si>
+  <si>
+    <t>e_CH3*</t>
+  </si>
+  <si>
+    <t>p_CH30</t>
+  </si>
+  <si>
+    <t>e_CH30*</t>
+  </si>
+  <si>
+    <t>p_CH31</t>
+  </si>
+  <si>
+    <t>e_CH31*</t>
+  </si>
+  <si>
+    <t>p_CH32</t>
+  </si>
+  <si>
+    <t>e_CH32*</t>
+  </si>
+  <si>
+    <t>p_CH33</t>
+  </si>
+  <si>
+    <t>e_CH33*</t>
+  </si>
+  <si>
+    <t>p_CH34</t>
+  </si>
+  <si>
+    <t>e_CH34*</t>
+  </si>
+  <si>
+    <t>p_CH35</t>
+  </si>
+  <si>
+    <t>e_CH35*</t>
+  </si>
+  <si>
+    <t>p_CH36</t>
+  </si>
+  <si>
+    <t>e_CH36*</t>
+  </si>
+  <si>
+    <t>p_CH37</t>
+  </si>
+  <si>
+    <t>e_CH37*</t>
+  </si>
+  <si>
+    <t>p_CH38</t>
+  </si>
+  <si>
+    <t>e_CH38*</t>
+  </si>
+  <si>
+    <t>p_CH39</t>
+  </si>
+  <si>
+    <t>e_CH39*</t>
+  </si>
+  <si>
+    <t>p_CH4</t>
+  </si>
+  <si>
+    <t>e_CH4*</t>
+  </si>
+  <si>
+    <t>p_CH40</t>
+  </si>
+  <si>
+    <t>e_CH40*</t>
+  </si>
+  <si>
+    <t>p_CH41</t>
+  </si>
+  <si>
+    <t>e_CH41*</t>
+  </si>
+  <si>
+    <t>p_CH42</t>
+  </si>
+  <si>
+    <t>e_CH42*</t>
+  </si>
+  <si>
+    <t>p_CH43</t>
+  </si>
+  <si>
+    <t>e_CH43*</t>
+  </si>
+  <si>
+    <t>p_CH44</t>
+  </si>
+  <si>
+    <t>e_CH44*</t>
+  </si>
+  <si>
+    <t>p_CH45</t>
+  </si>
+  <si>
+    <t>e_CH45*</t>
+  </si>
+  <si>
+    <t>p_CH46</t>
+  </si>
+  <si>
+    <t>e_CH46*</t>
+  </si>
+  <si>
+    <t>p_CH47</t>
+  </si>
+  <si>
+    <t>e_CH47*</t>
+  </si>
+  <si>
+    <t>p_CH48</t>
+  </si>
+  <si>
+    <t>e_CH48*</t>
+  </si>
+  <si>
+    <t>p_CH49</t>
+  </si>
+  <si>
+    <t>e_CH49*</t>
+  </si>
+  <si>
+    <t>p_CH5</t>
+  </si>
+  <si>
+    <t>e_CH5*</t>
+  </si>
+  <si>
+    <t>p_CH50</t>
+  </si>
+  <si>
+    <t>e_CH50*</t>
+  </si>
+  <si>
+    <t>p_CH51</t>
+  </si>
+  <si>
+    <t>e_CH51*</t>
+  </si>
+  <si>
+    <t>p_CH52</t>
+  </si>
+  <si>
+    <t>e_CH52*</t>
+  </si>
+  <si>
+    <t>p_CH53</t>
+  </si>
+  <si>
+    <t>e_CH53*</t>
+  </si>
+  <si>
+    <t>p_CH56</t>
+  </si>
+  <si>
+    <t>e_CH56*</t>
+  </si>
+  <si>
+    <t>p_CH57</t>
+  </si>
+  <si>
+    <t>e_CH57*</t>
+  </si>
+  <si>
+    <t>p_CH58</t>
+  </si>
+  <si>
+    <t>e_CH58*</t>
+  </si>
+  <si>
+    <t>p_CH59</t>
+  </si>
+  <si>
+    <t>e_CH59*</t>
+  </si>
+  <si>
+    <t>p_CH6</t>
+  </si>
+  <si>
+    <t>e_CH6*</t>
+  </si>
+  <si>
+    <t>p_CH60</t>
+  </si>
+  <si>
+    <t>e_CH60*</t>
+  </si>
+  <si>
+    <t>p_CH7</t>
+  </si>
+  <si>
+    <t>e_CH7*</t>
+  </si>
+  <si>
+    <t>p_CH9</t>
+  </si>
+  <si>
+    <t>e_CH9*</t>
+  </si>
+  <si>
+    <t>p_r5378910</t>
+  </si>
+  <si>
+    <t>e_r5378910*</t>
+  </si>
+  <si>
+    <t>p_r7933294</t>
+  </si>
+  <si>
+    <t>e_r7933294*</t>
+  </si>
+  <si>
+    <t>p_r9310861</t>
+  </si>
+  <si>
+    <t>e_r9310861*</t>
+  </si>
+  <si>
+    <t>p_w100662075</t>
+  </si>
+  <si>
+    <t>e_w100662075*</t>
+  </si>
+  <si>
+    <t>p_w108257952</t>
+  </si>
+  <si>
+    <t>e_w108257952*</t>
+  </si>
+  <si>
+    <t>p_w1086214433</t>
+  </si>
+  <si>
+    <t>e_w1086214433*</t>
+  </si>
+  <si>
+    <t>p_w109037817</t>
+  </si>
+  <si>
+    <t>e_w109037817*</t>
+  </si>
+  <si>
+    <t>p_w1092884227</t>
+  </si>
+  <si>
+    <t>e_w1092884227*</t>
+  </si>
+  <si>
+    <t>p_w1105061707</t>
+  </si>
+  <si>
+    <t>e_w1105061707*</t>
+  </si>
+  <si>
+    <t>p_w111162936</t>
+  </si>
+  <si>
+    <t>e_w111162936*</t>
+  </si>
+  <si>
+    <t>p_w11282314</t>
+  </si>
+  <si>
+    <t>e_w11282314*</t>
+  </si>
+  <si>
+    <t>p_w1208713169</t>
+  </si>
+  <si>
+    <t>e_w1208713169*</t>
+  </si>
+  <si>
+    <t>p_w122720993</t>
+  </si>
+  <si>
+    <t>e_w122720993*</t>
+  </si>
+  <si>
+    <t>p_w127004407</t>
+  </si>
+  <si>
+    <t>e_w127004407*</t>
+  </si>
+  <si>
+    <t>p_w1284913429</t>
+  </si>
+  <si>
+    <t>e_w1284913429*</t>
+  </si>
+  <si>
+    <t>p_w130198336</t>
+  </si>
+  <si>
+    <t>e_w130198336*</t>
+  </si>
+  <si>
+    <t>p_w132373704</t>
+  </si>
+  <si>
+    <t>e_w132373704*</t>
+  </si>
+  <si>
+    <t>p_w1327084723</t>
+  </si>
+  <si>
+    <t>e_w1327084723*</t>
+  </si>
+  <si>
+    <t>p_w140873735</t>
+  </si>
+  <si>
+    <t>e_w140873735*</t>
+  </si>
+  <si>
+    <t>p_w146225999</t>
+  </si>
+  <si>
+    <t>e_w146225999*</t>
+  </si>
+  <si>
+    <t>p_w147557680</t>
+  </si>
+  <si>
+    <t>e_w147557680*</t>
+  </si>
+  <si>
+    <t>p_w147714395</t>
+  </si>
+  <si>
+    <t>e_w147714395*</t>
+  </si>
+  <si>
+    <t>p_w148015471</t>
+  </si>
+  <si>
+    <t>e_w148015471*</t>
+  </si>
+  <si>
+    <t>p_w159527493</t>
+  </si>
+  <si>
+    <t>e_w159527493*</t>
+  </si>
+  <si>
+    <t>p_w161853746</t>
+  </si>
+  <si>
+    <t>e_w161853746*</t>
+  </si>
+  <si>
+    <t>p_w165254212</t>
+  </si>
+  <si>
+    <t>e_w165254212*</t>
+  </si>
+  <si>
+    <t>p_w165513396</t>
+  </si>
+  <si>
+    <t>e_w165513396*</t>
+  </si>
+  <si>
+    <t>p_w177392130</t>
+  </si>
+  <si>
+    <t>e_w177392130*</t>
+  </si>
+  <si>
+    <t>p_w190819048</t>
+  </si>
+  <si>
+    <t>e_w190819048*</t>
+  </si>
+  <si>
+    <t>p_w192677427</t>
+  </si>
+  <si>
+    <t>e_w192677427*</t>
+  </si>
+  <si>
+    <t>p_w194258388</t>
+  </si>
+  <si>
+    <t>e_w194258388*</t>
+  </si>
+  <si>
+    <t>p_w207991759</t>
+  </si>
+  <si>
+    <t>e_w207991759*</t>
+  </si>
+  <si>
+    <t>p_w207993342</t>
+  </si>
+  <si>
+    <t>e_w207993342*</t>
+  </si>
+  <si>
+    <t>p_w208780268</t>
+  </si>
+  <si>
+    <t>e_w208780268*</t>
+  </si>
+  <si>
+    <t>p_w209324991</t>
+  </si>
+  <si>
+    <t>e_w209324991*</t>
+  </si>
+  <si>
+    <t>p_w210568055</t>
+  </si>
+  <si>
+    <t>e_w210568055*</t>
+  </si>
+  <si>
+    <t>p_w211907009</t>
+  </si>
+  <si>
+    <t>e_w211907009*</t>
+  </si>
+  <si>
+    <t>p_w212498548</t>
+  </si>
+  <si>
+    <t>e_w212498548*</t>
+  </si>
+  <si>
+    <t>p_w212722603</t>
+  </si>
+  <si>
+    <t>e_w212722603*</t>
+  </si>
+  <si>
+    <t>p_w228003081</t>
+  </si>
+  <si>
+    <t>e_w228003081*</t>
+  </si>
+  <si>
+    <t>p_w22899676</t>
+  </si>
+  <si>
+    <t>e_w22899676*</t>
+  </si>
+  <si>
+    <t>p_w232662311</t>
+  </si>
+  <si>
+    <t>e_w232662311*</t>
+  </si>
+  <si>
+    <t>p_w234983117</t>
+  </si>
+  <si>
+    <t>e_w234983117*</t>
+  </si>
+  <si>
+    <t>p_w236819191</t>
+  </si>
+  <si>
+    <t>e_w236819191*</t>
+  </si>
+  <si>
+    <t>p_w238138373</t>
+  </si>
+  <si>
+    <t>e_w238138373*</t>
+  </si>
+  <si>
+    <t>p_w239937062</t>
+  </si>
+  <si>
+    <t>e_w239937062*</t>
+  </si>
+  <si>
+    <t>p_w240575085</t>
+  </si>
+  <si>
+    <t>e_w240575085*</t>
+  </si>
+  <si>
+    <t>p_w240959264</t>
+  </si>
+  <si>
+    <t>e_w240959264*</t>
+  </si>
+  <si>
+    <t>p_w242269161</t>
+  </si>
+  <si>
+    <t>e_w242269161*</t>
+  </si>
+  <si>
+    <t>p_w260211728</t>
+  </si>
+  <si>
+    <t>e_w260211728*</t>
+  </si>
+  <si>
+    <t>p_w26166640</t>
+  </si>
+  <si>
+    <t>e_w26166640*</t>
+  </si>
+  <si>
+    <t>p_w26843160</t>
+  </si>
+  <si>
+    <t>e_w26843160*</t>
+  </si>
+  <si>
+    <t>p_w27107779</t>
+  </si>
+  <si>
+    <t>e_w27107779*</t>
+  </si>
+  <si>
+    <t>p_w27435934</t>
+  </si>
+  <si>
+    <t>e_w27435934*</t>
+  </si>
+  <si>
+    <t>p_w281799252</t>
+  </si>
+  <si>
+    <t>e_w281799252*</t>
+  </si>
+  <si>
+    <t>p_w281800404</t>
+  </si>
+  <si>
+    <t>e_w281800404*</t>
+  </si>
+  <si>
+    <t>p_w281803398</t>
+  </si>
+  <si>
+    <t>e_w281803398*</t>
+  </si>
+  <si>
+    <t>p_w281804158</t>
+  </si>
+  <si>
+    <t>e_w281804158*</t>
+  </si>
+  <si>
+    <t>p_w281809991</t>
+  </si>
+  <si>
+    <t>e_w281809991*</t>
+  </si>
+  <si>
+    <t>p_w281815404</t>
+  </si>
+  <si>
+    <t>e_w281815404*</t>
+  </si>
+  <si>
+    <t>p_w281822905</t>
+  </si>
+  <si>
+    <t>e_w281822905*</t>
+  </si>
+  <si>
+    <t>p_w30350721</t>
+  </si>
+  <si>
+    <t>e_w30350721*</t>
+  </si>
+  <si>
+    <t>p_w31308888</t>
+  </si>
+  <si>
+    <t>e_w31308888*</t>
+  </si>
+  <si>
+    <t>p_w33271433</t>
+  </si>
+  <si>
+    <t>e_w33271433*</t>
+  </si>
+  <si>
+    <t>p_w35002638</t>
+  </si>
+  <si>
+    <t>e_w35002638*</t>
+  </si>
+  <si>
+    <t>p_w35487135</t>
+  </si>
+  <si>
+    <t>e_w35487135*</t>
+  </si>
+  <si>
+    <t>p_w356292116</t>
+  </si>
+  <si>
+    <t>e_w356292116*</t>
+  </si>
+  <si>
+    <t>p_w35840165</t>
+  </si>
+  <si>
+    <t>e_w35840165*</t>
+  </si>
+  <si>
+    <t>p_w36348118</t>
+  </si>
+  <si>
+    <t>e_w36348118*</t>
+  </si>
+  <si>
+    <t>p_w364949845</t>
+  </si>
+  <si>
+    <t>e_w364949845*</t>
+  </si>
+  <si>
+    <t>p_w365556107</t>
+  </si>
+  <si>
+    <t>e_w365556107*</t>
+  </si>
+  <si>
+    <t>p_w391576135</t>
+  </si>
+  <si>
+    <t>e_w391576135*</t>
+  </si>
+  <si>
+    <t>p_w391577741</t>
+  </si>
+  <si>
+    <t>e_w391577741*</t>
+  </si>
+  <si>
+    <t>p_w397960460</t>
+  </si>
+  <si>
+    <t>e_w397960460*</t>
+  </si>
+  <si>
+    <t>p_w402053379</t>
+  </si>
+  <si>
+    <t>e_w402053379*</t>
+  </si>
+  <si>
+    <t>p_w402055336</t>
+  </si>
+  <si>
+    <t>e_w402055336*</t>
+  </si>
+  <si>
+    <t>p_w431234146</t>
+  </si>
+  <si>
+    <t>e_w431234146*</t>
+  </si>
+  <si>
+    <t>p_w44496892</t>
+  </si>
+  <si>
+    <t>e_w44496892*</t>
+  </si>
+  <si>
+    <t>p_w455120191</t>
+  </si>
+  <si>
+    <t>e_w455120191*</t>
+  </si>
+  <si>
+    <t>p_w50319857</t>
+  </si>
+  <si>
+    <t>e_w50319857*</t>
+  </si>
+  <si>
+    <t>p_w50561341</t>
+  </si>
+  <si>
+    <t>e_w50561341*</t>
+  </si>
+  <si>
+    <t>p_w52738225</t>
+  </si>
+  <si>
+    <t>e_w52738225*</t>
+  </si>
+  <si>
+    <t>p_w55695765</t>
+  </si>
+  <si>
+    <t>e_w55695765*</t>
+  </si>
+  <si>
+    <t>p_w55698557</t>
+  </si>
+  <si>
+    <t>e_w55698557*</t>
+  </si>
+  <si>
+    <t>p_w71500123</t>
+  </si>
+  <si>
+    <t>e_w71500123*</t>
+  </si>
+  <si>
+    <t>p_w758315582</t>
+  </si>
+  <si>
+    <t>e_w758315582*</t>
+  </si>
+  <si>
+    <t>p_w758943072</t>
+  </si>
+  <si>
+    <t>e_w758943072*</t>
+  </si>
+  <si>
+    <t>p_w802058337</t>
+  </si>
+  <si>
+    <t>e_w802058337*</t>
+  </si>
+  <si>
+    <t>p_w83861269</t>
+  </si>
+  <si>
+    <t>e_w83861269*</t>
+  </si>
+  <si>
+    <t>p_w87281514</t>
+  </si>
+  <si>
+    <t>e_w87281514*</t>
+  </si>
+  <si>
+    <t>p_w88901626</t>
+  </si>
+  <si>
+    <t>e_w88901626*</t>
+  </si>
+  <si>
+    <t>p_w89405664</t>
+  </si>
+  <si>
+    <t>e_w89405664*</t>
+  </si>
+  <si>
+    <t>p_w89977424</t>
+  </si>
+  <si>
+    <t>e_w89977424*</t>
+  </si>
+  <si>
+    <t>p_w92798668</t>
+  </si>
+  <si>
+    <t>e_w92798668*</t>
+  </si>
+  <si>
+    <t>p_w92873516</t>
+  </si>
+  <si>
+    <t>e_w92873516*</t>
+  </si>
+  <si>
+    <t>p_w936521586</t>
+  </si>
+  <si>
+    <t>e_w936521586*</t>
+  </si>
+  <si>
+    <t>p_w969811258</t>
+  </si>
+  <si>
+    <t>e_w969811258*</t>
+  </si>
+  <si>
+    <t>p_w969819301</t>
+  </si>
+  <si>
+    <t>e_w969819301*</t>
+  </si>
+  <si>
+    <t>p_w97941869</t>
+  </si>
+  <si>
+    <t>e_w97941869*</t>
+  </si>
+  <si>
+    <t>p_w98648381</t>
+  </si>
+  <si>
+    <t>e_w98648381*</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,16 +1307,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -393,17 +1387,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -421,6 +1452,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF61642-2F7D-5778-0E84-8D76C657434F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,10 +2256,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ADF667-A23B-46F1-8863-848AB078EF0F}">
+  <dimension ref="A1:H159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18866FEF-25F1-4AA0-BCBB-B89156DE0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE0CFFA-C5EC-4C2D-B723-10AA69EF548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1474,7 +1474,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF61642-2F7D-5778-0E84-8D76C657434F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8733D68B-7E09-2164-8B8C-0BDB315A3AAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ADF667-A23B-46F1-8863-848AB078EF0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA33E6-3DEC-47A8-8D97-DB603AF671B3}">
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE0CFFA-C5EC-4C2D-B723-10AA69EF548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA03251-2072-4AC1-8F28-102A394067BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="463">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -331,7 +331,7 @@
     <t>Transformers Dn</t>
   </si>
   <si>
-    <t>~tfm_pset</t>
+    <t>~tfm_psets</t>
   </si>
   <si>
     <t>setname</t>
@@ -1274,6 +1274,156 @@
   </si>
   <si>
     <t>e_w98648381*</t>
+  </si>
+  <si>
+    <t>rez_CHE_0</t>
+  </si>
+  <si>
+    <t>elc*CHE_0000</t>
+  </si>
+  <si>
+    <t>rez_CHE_1</t>
+  </si>
+  <si>
+    <t>elc*CHE_0001</t>
+  </si>
+  <si>
+    <t>rez_CHE_10</t>
+  </si>
+  <si>
+    <t>elc*CHE_0010</t>
+  </si>
+  <si>
+    <t>rez_CHE_11</t>
+  </si>
+  <si>
+    <t>elc*CHE_0011</t>
+  </si>
+  <si>
+    <t>rez_CHE_12</t>
+  </si>
+  <si>
+    <t>elc*CHE_0012</t>
+  </si>
+  <si>
+    <t>rez_CHE_13</t>
+  </si>
+  <si>
+    <t>elc*CHE_0013</t>
+  </si>
+  <si>
+    <t>rez_CHE_14</t>
+  </si>
+  <si>
+    <t>elc*CHE_0014</t>
+  </si>
+  <si>
+    <t>rez_CHE_15</t>
+  </si>
+  <si>
+    <t>elc*CHE_0015</t>
+  </si>
+  <si>
+    <t>rez_CHE_17</t>
+  </si>
+  <si>
+    <t>elc*CHE_0017</t>
+  </si>
+  <si>
+    <t>rez_CHE_18</t>
+  </si>
+  <si>
+    <t>elc*CHE_0018</t>
+  </si>
+  <si>
+    <t>rez_CHE_19</t>
+  </si>
+  <si>
+    <t>elc*CHE_0019</t>
+  </si>
+  <si>
+    <t>rez_CHE_2</t>
+  </si>
+  <si>
+    <t>elc*CHE_0002</t>
+  </si>
+  <si>
+    <t>rez_CHE_20</t>
+  </si>
+  <si>
+    <t>elc*CHE_0020</t>
+  </si>
+  <si>
+    <t>rez_CHE_21</t>
+  </si>
+  <si>
+    <t>elc*CHE_0021</t>
+  </si>
+  <si>
+    <t>rez_CHE_22</t>
+  </si>
+  <si>
+    <t>elc*CHE_0022</t>
+  </si>
+  <si>
+    <t>rez_CHE_23</t>
+  </si>
+  <si>
+    <t>elc*CHE_0023</t>
+  </si>
+  <si>
+    <t>rez_CHE_24</t>
+  </si>
+  <si>
+    <t>elc*CHE_0024</t>
+  </si>
+  <si>
+    <t>rez_CHE_25</t>
+  </si>
+  <si>
+    <t>elc*CHE_0025</t>
+  </si>
+  <si>
+    <t>rez_CHE_3</t>
+  </si>
+  <si>
+    <t>elc*CHE_0003</t>
+  </si>
+  <si>
+    <t>rez_CHE_4</t>
+  </si>
+  <si>
+    <t>elc*CHE_0004</t>
+  </si>
+  <si>
+    <t>rez_CHE_5</t>
+  </si>
+  <si>
+    <t>elc*CHE_0005</t>
+  </si>
+  <si>
+    <t>rez_CHE_6</t>
+  </si>
+  <si>
+    <t>elc*CHE_0006</t>
+  </si>
+  <si>
+    <t>rez_CHE_7</t>
+  </si>
+  <si>
+    <t>elc*CHE_0007</t>
+  </si>
+  <si>
+    <t>rez_CHE_8</t>
+  </si>
+  <si>
+    <t>elc*CHE_0008</t>
+  </si>
+  <si>
+    <t>rez_CHE_9</t>
+  </si>
+  <si>
+    <t>elc*CHE_0009</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -1474,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8733D68B-7E09-2164-8B8C-0BDB315A3AAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC38D148-4F40-1FD9-0224-F8E9D2C63318}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,8 +2406,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA33E6-3DEC-47A8-8D97-DB603AF671B3}">
-  <dimension ref="A1:H159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CD411-4FC3-47EE-8AD8-79CC3C3C4E17}">
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2269,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3538,6 +3688,206 @@
       </c>
       <c r="C159" s="8" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA03251-2072-4AC1-8F28-102A394067BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77687CC-B3D8-4D9D-940E-53810125527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC38D148-4F40-1FD9-0224-F8E9D2C63318}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804F898-504A-74AB-5746-43A219662AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CD411-4FC3-47EE-8AD8-79CC3C3C4E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CD7862-61F6-4D70-B670-E59E9F112877}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77687CC-B3D8-4D9D-940E-53810125527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383B9F43-44E1-4687-8B04-7326306684E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804F898-504A-74AB-5746-43A219662AB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DB4FF8-E0BE-222C-5673-15D3960F4CA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CD7862-61F6-4D70-B670-E59E9F112877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D26B71-DBC1-44EF-89E9-1636451A520E}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383B9F43-44E1-4687-8B04-7326306684E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A63E45-218A-4FDF-975D-60CDA56CD749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DB4FF8-E0BE-222C-5673-15D3960F4CA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE493B05-F587-5ED7-EDE0-8B81B1B8C24C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D26B71-DBC1-44EF-89E9-1636451A520E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B3322-5C15-4231-B709-A3ECA12A950B}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A63E45-218A-4FDF-975D-60CDA56CD749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46746540-09FF-4704-96B4-B1C8FAB5837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE493B05-F587-5ED7-EDE0-8B81B1B8C24C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA9B637-FC30-1481-8216-2D6271E1DDFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B3322-5C15-4231-B709-A3ECA12A950B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4473F14-EA6B-4EDE-8C11-A245FCFAD47D}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46746540-09FF-4704-96B4-B1C8FAB5837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6CB315-83BD-4E62-883E-41F1C39655AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA9B637-FC30-1481-8216-2D6271E1DDFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E95BB8-188F-9A40-58A5-003EC5405550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4473F14-EA6B-4EDE-8C11-A245FCFAD47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E621A3-9885-4102-A1B2-87FD09D39332}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6CB315-83BD-4E62-883E-41F1C39655AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C543E6B-EE78-482C-B507-7E10E4601001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E95BB8-188F-9A40-58A5-003EC5405550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3655DC-0530-178B-2ED6-54B0DE29A907}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E621A3-9885-4102-A1B2-87FD09D39332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1102EA1-6786-41DF-8177-4458D84BE7FB}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C543E6B-EE78-482C-B507-7E10E4601001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9525A5-7D3B-4006-AFEB-DD7DA1610C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3655DC-0530-178B-2ED6-54B0DE29A907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A48C11-1507-0080-E659-7CD36B1CE48A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1102EA1-6786-41DF-8177-4458D84BE7FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4047A5D2-E1A4-4372-832D-6197410D1130}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9525A5-7D3B-4006-AFEB-DD7DA1610C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D952A045-9E51-4C22-8AC0-CEE9225532D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A48C11-1507-0080-E659-7CD36B1CE48A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4C509A-D12C-3824-52E7-BBE6BEF009F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4047A5D2-E1A4-4372-832D-6197410D1130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B196345-AE52-43CE-96AC-40F6EC1F2CE8}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D952A045-9E51-4C22-8AC0-CEE9225532D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5905EE06-F533-4D61-9A2C-E0CAFAD0106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4C509A-D12C-3824-52E7-BBE6BEF009F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00499DBE-722A-F665-37C6-C6A5E3C1E09D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B196345-AE52-43CE-96AC-40F6EC1F2CE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FFF841-062C-467F-8A09-5F6C5CA37A98}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5905EE06-F533-4D61-9A2C-E0CAFAD0106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A174DE-F721-412E-8406-7330339FBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,6 +1288,54 @@
     <t>elc*CHE_0001</t>
   </si>
   <si>
+    <t>rez_CHE_2</t>
+  </si>
+  <si>
+    <t>elc*CHE_0002</t>
+  </si>
+  <si>
+    <t>rez_CHE_3</t>
+  </si>
+  <si>
+    <t>elc*CHE_0003</t>
+  </si>
+  <si>
+    <t>rez_CHE_4</t>
+  </si>
+  <si>
+    <t>elc*CHE_0004</t>
+  </si>
+  <si>
+    <t>rez_CHE_5</t>
+  </si>
+  <si>
+    <t>elc*CHE_0005</t>
+  </si>
+  <si>
+    <t>rez_CHE_6</t>
+  </si>
+  <si>
+    <t>elc*CHE_0006</t>
+  </si>
+  <si>
+    <t>rez_CHE_7</t>
+  </si>
+  <si>
+    <t>elc*CHE_0007</t>
+  </si>
+  <si>
+    <t>rez_CHE_8</t>
+  </si>
+  <si>
+    <t>elc*CHE_0008</t>
+  </si>
+  <si>
+    <t>rez_CHE_9</t>
+  </si>
+  <si>
+    <t>elc*CHE_0009</t>
+  </si>
+  <si>
     <t>rez_CHE_10</t>
   </si>
   <si>
@@ -1342,12 +1390,6 @@
     <t>elc*CHE_0019</t>
   </si>
   <si>
-    <t>rez_CHE_2</t>
-  </si>
-  <si>
-    <t>elc*CHE_0002</t>
-  </si>
-  <si>
     <t>rez_CHE_20</t>
   </si>
   <si>
@@ -1382,48 +1424,6 @@
   </si>
   <si>
     <t>elc*CHE_0025</t>
-  </si>
-  <si>
-    <t>rez_CHE_3</t>
-  </si>
-  <si>
-    <t>elc*CHE_0003</t>
-  </si>
-  <si>
-    <t>rez_CHE_4</t>
-  </si>
-  <si>
-    <t>elc*CHE_0004</t>
-  </si>
-  <si>
-    <t>rez_CHE_5</t>
-  </si>
-  <si>
-    <t>elc*CHE_0005</t>
-  </si>
-  <si>
-    <t>rez_CHE_6</t>
-  </si>
-  <si>
-    <t>elc*CHE_0006</t>
-  </si>
-  <si>
-    <t>rez_CHE_7</t>
-  </si>
-  <si>
-    <t>elc*CHE_0007</t>
-  </si>
-  <si>
-    <t>rez_CHE_8</t>
-  </si>
-  <si>
-    <t>elc*CHE_0008</t>
-  </si>
-  <si>
-    <t>rez_CHE_9</t>
-  </si>
-  <si>
-    <t>elc*CHE_0009</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00499DBE-722A-F665-37C6-C6A5E3C1E09D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCE5213-9983-1D4B-3649-F1311FFC3CD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FFF841-062C-467F-8A09-5F6C5CA37A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049D828A-1378-405C-862A-A5176E21DB07}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A174DE-F721-412E-8406-7330339FBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{310B875A-050C-4BBC-A7B9-501DEB0C3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCE5213-9983-1D4B-3649-F1311FFC3CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BAEF9E-5C4C-49DB-F748-A50427DDE352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049D828A-1378-405C-862A-A5176E21DB07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8044842-5904-437D-82CD-75565E2B16EC}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310B875A-050C-4BBC-A7B9-501DEB0C3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8E0762-57B7-463F-928D-04CE7A35DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BAEF9E-5C4C-49DB-F748-A50427DDE352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3746EB3-5402-BCAC-FFC5-1FA6F959A3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8044842-5904-437D-82CD-75565E2B16EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438600C4-56B2-4DE6-933C-C186DDAD1867}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8E0762-57B7-463F-928D-04CE7A35DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8DC2D2-91CA-4BE6-BC26-4571B4066E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3746EB3-5402-BCAC-FFC5-1FA6F959A3A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7397AED-BA72-6D96-9F4D-58F5C2727C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438600C4-56B2-4DE6-933C-C186DDAD1867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F276A0-D160-4E33-9F2F-D2DC20F951E0}">
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8DC2D2-91CA-4BE6-BC26-4571B4066E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F283A174-9FEB-42D9-8A8E-CE6FA4F5FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="463">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -112,225 +112,228 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>*hydro*</t>
+  </si>
+  <si>
+    <t>Hydro pumped stg</t>
+  </si>
+  <si>
+    <t>IGCC</t>
+  </si>
+  <si>
+    <t>ep_bioenergy*,bioen*</t>
+  </si>
+  <si>
+    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
+  </si>
+  <si>
+    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
+  </si>
+  <si>
+    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
+  </si>
+  <si>
+    <t>*IGCC*</t>
+  </si>
+  <si>
+    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
+  </si>
+  <si>
+    <t>Gas_Oil Steam</t>
+  </si>
+  <si>
+    <t>Int Comb</t>
+  </si>
+  <si>
+    <t>EN*STG?hb*,-*EV*</t>
+  </si>
+  <si>
+    <t>Util Batt Stg</t>
+  </si>
+  <si>
+    <t>*EV*</t>
+  </si>
+  <si>
+    <t>EV Batt</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
     <t>Wind onshore</t>
   </si>
   <si>
     <t>Wind offshore</t>
   </si>
   <si>
-    <t>-*WOF*</t>
-  </si>
-  <si>
-    <t>*WOF*</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>*hydro*</t>
-  </si>
-  <si>
-    <t>Hydro pumped stg</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>ep_bioenergy*,bioen*</t>
-  </si>
-  <si>
-    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
-  </si>
-  <si>
-    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
-  </si>
-  <si>
-    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
-  </si>
-  <si>
-    <t>*IGCC*</t>
-  </si>
-  <si>
-    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
-  </si>
-  <si>
-    <t>Gas_Oil Steam</t>
-  </si>
-  <si>
-    <t>Int Comb</t>
-  </si>
-  <si>
-    <t>EN*STG?hb*,-*EV*</t>
-  </si>
-  <si>
-    <t>Util Batt Stg</t>
-  </si>
-  <si>
-    <t>*EV*</t>
-  </si>
-  <si>
-    <t>EV Batt</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>g[_]*</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>e*spv*</t>
-  </si>
-  <si>
-    <t>e*won*,e*wof*</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>elc_transport</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co2captured</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>EVs</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>coal,gas,oil</t>
-  </si>
-  <si>
-    <t>geothermal,hydro,solar,wind</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>stepdown*</t>
-  </si>
-  <si>
-    <t>Nuclear P</t>
-  </si>
-  <si>
-    <t>*ror*</t>
-  </si>
-  <si>
-    <t>Hydro RoR</t>
-  </si>
-  <si>
-    <t>Geothermal P</t>
-  </si>
-  <si>
-    <t>Bio Power</t>
-  </si>
-  <si>
-    <t>Nuclear SMR</t>
-  </si>
-  <si>
-    <t>*SMR*</t>
-  </si>
-  <si>
-    <t>Solar Util</t>
-  </si>
-  <si>
-    <t>-*SMR*</t>
-  </si>
-  <si>
-    <t>-*ror*</t>
-  </si>
-  <si>
-    <t>Hydro Dam</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>Solar elec</t>
-  </si>
-  <si>
-    <t>Wind elec</t>
-  </si>
-  <si>
     <t>distr*</t>
   </si>
   <si>
-    <t>Aggregators</t>
-  </si>
-  <si>
-    <t>IMP*Z</t>
-  </si>
-  <si>
-    <t>DUMMY_IMP</t>
-  </si>
-  <si>
-    <t>stepup*</t>
-  </si>
-  <si>
-    <t>Transformers Up</t>
-  </si>
-  <si>
-    <t>Transformers Dn</t>
-  </si>
-  <si>
     <t>~tfm_psets</t>
   </si>
   <si>
@@ -1424,16 +1427,13 @@
   </si>
   <si>
     <t>elc*CHE_0025</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,61 +1457,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1537,54 +1492,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1602,61 +1520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7397AED-BA72-6D96-9F4D-58F5C2727C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1959,7 +1822,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2281,39 +2144,39 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" t="str">
         <f>B28</f>
@@ -2322,7 +2185,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29" t="str">
         <f>B29</f>
@@ -2331,7 +2194,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D30" t="str">
         <f>B30</f>
@@ -2340,7 +2203,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D31" t="str">
         <f>B31</f>
@@ -2349,39 +2212,39 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D36" t="str">
         <f>B36</f>
@@ -2390,7 +2253,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D37" t="str">
         <f>B37</f>
@@ -2406,1496 +2269,1476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F276A0-D160-4E33-9F2F-D2DC20F951E0}">
-  <dimension ref="A1:H184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1557DAE8-E86C-4DE6-9E45-F76E6AD40BED}">
+  <dimension ref="B2:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>305</v>
+      </c>
+      <c r="C106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>327</v>
+      </c>
+      <c r="C117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>335</v>
+      </c>
+      <c r="C121" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" t="s">
+        <v>385</v>
+      </c>
+      <c r="C146" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" t="s">
+        <v>387</v>
+      </c>
+      <c r="C147" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" t="s">
+        <v>389</v>
+      </c>
+      <c r="C148" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" t="s">
+        <v>391</v>
+      </c>
+      <c r="C149" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" t="s">
+        <v>393</v>
+      </c>
+      <c r="C150" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" t="s">
+        <v>395</v>
+      </c>
+      <c r="C151" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" t="s">
+        <v>397</v>
+      </c>
+      <c r="C152" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" t="s">
+        <v>401</v>
+      </c>
+      <c r="C154" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" t="s">
+        <v>403</v>
+      </c>
+      <c r="C155" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" t="s">
+        <v>405</v>
+      </c>
+      <c r="C156" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" t="s">
+        <v>407</v>
+      </c>
+      <c r="C157" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" t="s">
+        <v>409</v>
+      </c>
+      <c r="C158" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" t="s">
+        <v>411</v>
+      </c>
+      <c r="C159" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
+        <v>413</v>
+      </c>
+      <c r="C160" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>421</v>
+      </c>
+      <c r="C164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>423</v>
+      </c>
+      <c r="C165" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>427</v>
+      </c>
+      <c r="C167" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" t="s">
+        <v>429</v>
+      </c>
+      <c r="C168" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" t="s">
+        <v>431</v>
+      </c>
+      <c r="C169" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>433</v>
+      </c>
+      <c r="C170" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
+        <v>435</v>
+      </c>
+      <c r="C171" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" t="s">
+        <v>437</v>
+      </c>
+      <c r="C172" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>439</v>
+      </c>
+      <c r="C173" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
+        <v>441</v>
+      </c>
+      <c r="C174" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
+        <v>443</v>
+      </c>
+      <c r="C175" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
+        <v>445</v>
+      </c>
+      <c r="C176" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" t="s">
+        <v>447</v>
+      </c>
+      <c r="C177" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>449</v>
+      </c>
+      <c r="C178" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
+        <v>451</v>
+      </c>
+      <c r="C179" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" t="s">
+        <v>453</v>
+      </c>
+      <c r="C180" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" t="s">
+        <v>455</v>
+      </c>
+      <c r="C181" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>457</v>
+      </c>
+      <c r="C182" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>459</v>
+      </c>
+      <c r="C183" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" t="s">
+        <v>461</v>
+      </c>
+      <c r="C184" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B64" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B65" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B66" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B67" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B68" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B69" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B71" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B72" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B73" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B74" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B75" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B77" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B78" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B79" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B80" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B89" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B91" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B92" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B100" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B101" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B103" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B104" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B105" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B106" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B108" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B109" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B110" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B111" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B112" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B113" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B114" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B115" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B116" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B117" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B118" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B120" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B122" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B125" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B127" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B128" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B129" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B130" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B131" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B132" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B133" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B134" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B135" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B136" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B137" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B138" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B139" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B140" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B141" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B142" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B143" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B144" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B145" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B146" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B147" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B148" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B149" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B150" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B151" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B152" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B153" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B154" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B155" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B156" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B157" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B158" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B159" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B160" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B161" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B162" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B163" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B164" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B165" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B166" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B167" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B168" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B169" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B170" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B171" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B172" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B174" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B175" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B176" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B177" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B178" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B179" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B180" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B181" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B182" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B183" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B184" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>461</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3904,8 +3747,8 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3956,7 +3799,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -3965,10 +3808,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -3976,7 +3819,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -3984,26 +3827,26 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -4011,7 +3854,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4019,56 +3862,57 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -4076,13 +3920,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -4090,121 +3934,121 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -4482,18 +4326,18 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F283A174-9FEB-42D9-8A8E-CE6FA4F5FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFCF5FF-59AF-4E76-8AB9-3246796EAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1557DAE8-E86C-4DE6-9E45-F76E6AD40BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4938EBE1-84B6-4C51-9FC3-C49E7490674B}">
   <dimension ref="B2:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFCF5FF-59AF-4E76-8AB9-3246796EAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35553F4A-6137-467A-95BF-053F628BA7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4938EBE1-84B6-4C51-9FC3-C49E7490674B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B741A7-3587-4504-82CF-BBB85E79C6B8}">
   <dimension ref="B2:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
